--- a/r-research/based-peptide-analysis/PXD007145/msqrob-quantms_experimental_annotation.xlsx
+++ b/r-research/based-peptide-analysis/PXD007145/msqrob-quantms_experimental_annotation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dataset\R downstream analysis\0-paper\data_benchmark\0-reviewer\peptide based\PXD007145\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E596776-3C2D-4F14-9A41-FCDE7F14DEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DCCC76-5939-4487-ADF4-53936C70DBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6225" yWindow="1200" windowWidth="22140" windowHeight="14505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8610" yWindow="1335" windowWidth="22140" windowHeight="14505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,89 +20,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>run</t>
-  </si>
-  <si>
-    <t>peptide_abundance_study_variable.2.</t>
-  </si>
-  <si>
-    <t>peptide_abundance_study_variable.3.</t>
-  </si>
-  <si>
-    <t>peptide_abundance_study_variable.4.</t>
-  </si>
-  <si>
-    <t>peptide_abundance_study_variable.5.</t>
-  </si>
-  <si>
-    <t>peptide_abundance_study_variable.6.</t>
-  </si>
-  <si>
-    <t>peptide_abundance_study_variable.7.</t>
-  </si>
-  <si>
-    <t>peptide_abundance_study_variable.8.</t>
-  </si>
-  <si>
-    <t>peptide_abundance_study_variable.1.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>treatment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>peptide_abundance_study_variable.9.</t>
-  </si>
-  <si>
-    <t>peptide_abundance_study_variable.10.</t>
-  </si>
-  <si>
-    <t>peptide_abundance_study_variable.11.</t>
-  </si>
-  <si>
-    <t>peptide_abundance_study_variable.12.</t>
-  </si>
-  <si>
-    <t>peptide_abundance_study_variable.13.</t>
-  </si>
-  <si>
-    <t>peptide_abundance_study_variable.14.</t>
-  </si>
-  <si>
-    <t>peptide_abundance_study_variable.15.</t>
-  </si>
-  <si>
-    <t>peptide_abundance_study_variable.16.</t>
-  </si>
-  <si>
-    <t>peptide_abundance_study_variable.17.</t>
-  </si>
-  <si>
-    <t>peptide_abundance_study_variable.18.</t>
-  </si>
-  <si>
-    <t>fold1</t>
-  </si>
-  <si>
     <t>fold1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>fold4</t>
-  </si>
-  <si>
-    <t>fold4</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fold10</t>
   </si>
   <si>
     <t>fold10</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sumIntensity_1</t>
+  </si>
+  <si>
+    <t>sumIntensity_2</t>
+  </si>
+  <si>
+    <t>sumIntensity_3</t>
   </si>
 </sst>
 </file>
@@ -443,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,151 +404,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
         <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/r-research/based-peptide-analysis/PXD007145/msqrob-quantms_experimental_annotation.xlsx
+++ b/r-research/based-peptide-analysis/PXD007145/msqrob-quantms_experimental_annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dataset\R downstream analysis\0-paper\data_benchmark\0-reviewer\peptide based\PXD007145\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DCCC76-5939-4487-ADF4-53936C70DBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086263BF-8FE4-4FFC-B52D-6DF4674A988A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8610" yWindow="1335" windowWidth="22140" windowHeight="14505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="885" yWindow="945" windowWidth="22140" windowHeight="14505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,16 @@
     <t>run</t>
   </si>
   <si>
+    <t>peptide_abundance_study_variable.2.</t>
+  </si>
+  <si>
+    <t>peptide_abundance_study_variable.3.</t>
+  </si>
+  <si>
+    <t>peptide_abundance_study_variable.1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>treatment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -39,15 +49,6 @@
   <si>
     <t>fold10</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sumIntensity_1</t>
-  </si>
-  <si>
-    <t>sumIntensity_2</t>
-  </si>
-  <si>
-    <t>sumIntensity_3</t>
   </si>
 </sst>
 </file>
@@ -391,7 +392,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,31 +405,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
